--- a/src/test/resources/TestData/DsAlgo_PracticeuestionCode.xlsx
+++ b/src/test/resources/TestData/DsAlgo_PracticeuestionCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4d1677d4c0b9e988/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="8_{87AAEC9A-C64A-4EA1-877D-537D0DC8A526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61BBA62D-CFA0-4EC1-A0D2-C8BE0027AEC3}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="8_{87AAEC9A-C64A-4EA1-877D-537D0DC8A526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF33B9B8-A488-42D3-BBA6-A1918166A1A5}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{41B49AAD-842D-42DB-857C-8A4D4BD07F44}"/>
   </bookViews>
@@ -63,28 +63,57 @@
     <t>def FindMaxConsecutiveOnes(nums):\n count = maxCount = 0\n for num in nums:\n  if num == 1:\n   count += 1\n   maxCount = max(maxCount, count)\n  else:\n   count = 0\n return maxCount\nprint(findMaxConsecutiveOnes([1,1,0,1,1,1]))</t>
   </si>
   <si>
-    <t>def findNumbers(nums):\n count = 0\n for num in nums:\n  if len(str(num)) % 2 == 1:\n   count += 1\n return count\nprint(findNumbers([12,345,2,6,7896]))</t>
-  </si>
-  <si>
     <t>[0, 1, 9, 16, 100]</t>
   </si>
   <si>
-    <t>def sortedSquares(nums):\n return sorted(nums)\nprint(sortedSquares([-4,-1,0,3,10]))</t>
-  </si>
-  <si>
-    <t>def search(lst, value):\n if value in lst:\n  return \"Element Found\"\n else:\n  return \"Not Found\"\nprint(search([12, 23, 45, 67, 6, 90], 12))</t>
-  </si>
-  <si>
     <t>Valid</t>
   </si>
   <si>
-    <t>def findMaxConsecutiveOnes(nums):\n count = maxCount = 0\n for num in nums:\n  if num == 1:\n   count += 1\n   maxCount = max(maxCount, count)\n  else:\n   count = 0\n return maxCount\nprint(findMaxConsecutiveOnes([1,1,0,1,1,1]))</t>
-  </si>
-  <si>
-    <t>def sortedSquares(nums):\n return sorted([x * x for x in nums])\nprint(sortedSquares([-4,-1,0,3,10]))</t>
-  </si>
-  <si>
-    <t>def findNumbers(nums):\n count = 0\n for num in nums:\n  if len(str(num)) % 2 == 0:\n   count += 1\n return count\nprint(findNumbers([12,345,2,6,7896]))</t>
+    <t>def search(lst, value):
+    if value in lst:
+        print("Element Found")
+    else:
+        print("Not Found")
+search([12, 23, 45, 67, 6, 90], 12)</t>
+  </si>
+  <si>
+    <t>def findMaxConsecutiveOnes(nums):
+    max_count = 0
+    count = 0
+    for num in nums:
+        if num == 1:
+            count += 1
+            max_count = max(max_count, count)
+        else:
+            count = 0
+    return max_count
+# Test cases
+print(findMaxConsecutiveOnes([1, 1, 0, 1, 1, 1]))</t>
+  </si>
+  <si>
+    <t>def countEvenDigits(nums):
+    count = 0
+    for num in nums:
+        if len(str(num)) % 2 == 0:
+            count += 1
+    return count
+# Example usage:
+print(countEvenDigits([12,345,2,6,7896]))</t>
+  </si>
+  <si>
+    <t>def sortedSquares(nums):
+    # Square each element
+    squares = [x * x for x in nums]
+    # Sort the list of squares
+    return sorted(squares)
+# Example usage:
+print(sortedSquares([-4, -1, 0, 3, 10]))</t>
+  </si>
+  <si>
+    <t>count = 0\n for num in nums:\n  if len(str(num)) % 2 == 1:\n   count += 1\n return count\nprint(findNumbers([12,345,2,6,7896]))</t>
+  </si>
+  <si>
+    <t>:\n return sorted(nums)\nprint(sortedSquares([-4,-1,0,3,10]))</t>
   </si>
 </sst>
 </file>
@@ -492,7 +521,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -521,6 +550,9 @@
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
+      <c r="D2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -530,18 +562,23 @@
         <v>1</v>
       </c>
       <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
@@ -549,16 +586,22 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="228" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
@@ -567,41 +610,56 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="D9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="114" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
+      <c r="D10">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11">
         <v>9</v>
       </c>
-      <c r="C11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/TestData/DsAlgo_PracticeuestionCode.xlsx
+++ b/src/test/resources/TestData/DsAlgo_PracticeuestionCode.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4d1677d4c0b9e988/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{87AAEC9A-C64A-4EA1-877D-537D0DC8A526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF33B9B8-A488-42D3-BBA6-A1918166A1A5}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{41B49AAD-842D-42DB-857C-8A4D4BD07F44}"/>
+    <workbookView xWindow="0" yWindow="1155" windowWidth="20460" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pythoncode" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <oleSize ref="A1:Q40"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -119,8 +114,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,10 +192,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -244,7 +235,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -296,7 +287,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -510,29 +501,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E80DEC-CF99-4FD8-BB57-C3227FF16274}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="37.3984375" customWidth="1"/>
-    <col min="2" max="2" width="24.86328125" customWidth="1"/>
-    <col min="3" max="3" width="30.9296875" customWidth="1"/>
-    <col min="4" max="4" width="28.59765625" customWidth="1"/>
+    <col min="1" max="1" width="37.375" customWidth="1"/>
+    <col min="2" max="2" width="24.875" customWidth="1"/>
+    <col min="3" max="3" width="30.875" customWidth="1"/>
+    <col min="4" max="4" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -542,7 +533,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,7 +545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -566,7 +557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="105">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -580,7 +571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="105">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -590,7 +581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="228" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" ht="240">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -604,7 +595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" ht="105">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -614,7 +605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="135">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -628,7 +619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="45">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -638,7 +629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="114" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="120">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -652,7 +643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="45">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -667,12 +658,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D9D4AD-070E-46F3-B7D4-0A48A1047DF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
